--- a/Traveler__Insurance.xlsx
+++ b/Traveler__Insurance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6f8e6e0b6d3c3c3/Desktop/Traveller_Insurance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A36924CE-A89F-49BB-AAD3-4E50DC330321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{A36924CE-A89F-49BB-AAD3-4E50DC330321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1B1904F-058A-4910-82CA-98DA2F87F637}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1ABA952F-840A-4DC1-9E91-51468BF50A4D}"/>
   </bookViews>
@@ -44,34 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
-  <si>
-    <t>S.No.</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Passport Number</t>
-  </si>
-  <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>DOB</t>
   </si>
@@ -109,7 +82,31 @@
     <t>keshavjha1234@gmail.com</t>
   </si>
   <si>
-    <t>UniqueId</t>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>uniqueId</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>passportNumber</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
   </si>
 </sst>
 </file>
@@ -466,165 +463,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B643ECE7-3B40-4054-995C-688A2CE4A64F}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="1">
+        <v>333333</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="1">
+        <v>12345678900</v>
+      </c>
+      <c r="G2" s="1">
+        <v>8794807022</v>
+      </c>
+      <c r="H2" s="2">
+        <v>37664</v>
+      </c>
+      <c r="I2" s="2">
+        <v>38465</v>
+      </c>
+      <c r="J2" s="2">
+        <v>34368</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>444444</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>12345678900</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8794807022</v>
+      </c>
+      <c r="H3" s="2">
+        <v>37664</v>
+      </c>
+      <c r="I3" s="2">
+        <v>38465</v>
+      </c>
+      <c r="J3" s="2">
+        <v>34368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>555555</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
-        <v>333333</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F4" s="1">
         <v>12345678900</v>
       </c>
-      <c r="H2" s="1">
+      <c r="G4" s="1">
         <v>8794807022</v>
       </c>
-      <c r="I2" s="2">
+      <c r="H4" s="2">
         <v>37664</v>
       </c>
-      <c r="J2" s="2">
+      <c r="I4" s="2">
         <v>38465</v>
       </c>
-      <c r="K2" s="2">
-        <v>34368</v>
-      </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1">
-        <v>444444</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1">
-        <v>12345678900</v>
-      </c>
-      <c r="H3" s="1">
-        <v>8794807022</v>
-      </c>
-      <c r="I3" s="2">
-        <v>37664</v>
-      </c>
-      <c r="J3" s="2">
-        <v>38465</v>
-      </c>
-      <c r="K3" s="2">
-        <v>34368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1">
-        <v>555555</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1">
-        <v>12345678900</v>
-      </c>
-      <c r="H4" s="1">
-        <v>8794807022</v>
-      </c>
-      <c r="I4" s="2">
-        <v>37664</v>
-      </c>
       <c r="J4" s="2">
-        <v>38465</v>
-      </c>
-      <c r="K4" s="2">
         <v>34368</v>
       </c>
     </row>
